--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3556.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3556.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.352961926392471</v>
+        <v>0.7740287184715271</v>
       </c>
       <c r="B1">
-        <v>1.478923826251773</v>
+        <v>1.057392597198486</v>
       </c>
       <c r="C1">
-        <v>1.74287211187674</v>
+        <v>3.418669462203979</v>
       </c>
       <c r="D1">
-        <v>2.998557873936605</v>
+        <v>1.466085314750671</v>
       </c>
       <c r="E1">
-        <v>5.602795199801831</v>
+        <v>1.573581695556641</v>
       </c>
     </row>
   </sheetData>
